--- a/Part_3.xlsx
+++ b/Part_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chasehubbs/Desktop/Research/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chasehubbs/Desktop/already uploaded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE0BB9-AC9C-BF42-AB85-3A2B833A0E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51128388-F51D-E84B-AC5E-F878EBB0FD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{3F3CA952-2A2C-D040-A9CF-60A9DCECCFE9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{3F3CA952-2A2C-D040-A9CF-60A9DCECCFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,733 +41,733 @@
     <t>HS_VIDS</t>
   </si>
   <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_D_Neutral_Lateral_Down9.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Mouth_Circle_Self14.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_E_Mouth_Twist_Down12.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_5_Elbow_Twist_Self20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_S_Elbow_Circle_Down25.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_C_Neutral_Circle_Self5.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_4_Neutral_Circle_Forward4.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_F_Neutral_Twist_Down3.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_C_Neutral_Lateral_Self8.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_G_Elbow_Twist_Self21.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Radial_U_Elbow_Circle_Forwawrd22.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_3_Neutral_Lateral_Down9.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_3_Neutral_Lateral_Self8.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_K_Elbow_Twist_Self22.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_3_Mouth_Circle_Forward13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_R_Neutral_Lateral_Self10.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_R_Mouth_Twist_Self13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_A_Elbow_Lateral_Self29.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_5_Neutral_Lateral_Down9.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_Bent_5_Mouth_Circle_Self16.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_R_Neutral_Circle_Forward6.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_F_Mouth_Twist_Down13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Radial_8_Neutral_Lateral_Forward7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_C_Elbow_Twist_Forward19.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_3_Neutral_Twist_Forward1.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Ulnar_Elbow_Twist_Forward19.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Flat_O_Mouth_Lateral_Down19.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_I_Mouth_Circle_Self16.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Bent_L_Elbow_Circle_Self24.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_5_Elbow_Lateral_Self26.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_8_Neutral_Twist_Forward1.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_A_Neutral_Lateral_Down2.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_D_Neutral_Lateral_Forward7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Flat_O_Neutral_Twist_Down4.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_5_Mouth_Lateral_Self17.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_U_Neutral_Twist_Self2.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_U_Mouth_Lateral_Down20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_3_Elbow_Twist_Self21.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Neutral_Circle_Down6.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_D_Elbow_Twist_Self20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_E_Elbow_Twist_Forward19.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_U_Elbow_Lateral_Down30.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Mouth_Twist_Forward10.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Mouth_Lateral_Self17.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_3_Mouth_Lateral_Self18.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_V_Mouth_Circle_Down18.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Flat_O_Neutral_Circle_Down7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_Bent_5_Elbow_Twist_Forward21.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Ulnar_Elbow_Circle_Self23.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_G_Neutral_Twist_Forward1.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Ulnar_Neutral_Lateral_Down9.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_I_Mouth_Lateral_Forward19.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_Bent_5_Elbow_Circle_Self25.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Radial_8_Elbow_Lateral_Self23.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_O_Mouth_Lateral_Forward18.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_V_Neutral_Lateral_Forward9.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Flat_O_Elbow_Circle_Down25.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_5_Mouth_Lateral_Forward16.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_R_Neutral_Circle_Self7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_5_Elbow_Lateral_Down27.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Ulnar_Neutral_Circle_Self5.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_B_Mouth_Twist_Down14.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Mouth_Twist_Down12.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_8_Mouth_Lateral_Down19.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_U_Mouth_Circle_Down15.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_8_Elbow_Circle_Forward23.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Radial_U_Neutral_Lateral_Down9.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_10_Mouth_Twist_Self13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_C_Neutral_Circle_Forward4.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_E_Mouth_Circle_Self14.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Elbow_Lateral_Forward26.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Mouth_Twist_Self11.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_E_Neutral_Lateral_Self8.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_W_Mouth_Twist_Self12.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Y_Neutral_Twist_Down4.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_V_Elbow_Twist_Down24.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_5_Neutral_Lateral_Self8.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_G_Elbow_Circle_Self25.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_O_Elbow_Lateral_Self28.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_V_Neutral_Circle_Self5.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Bent_L_Mouth_Lateral_Down3.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Y_Mouth_Lateral_Down20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_5_Elbow_Lateral_Forward25.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_O_Mouth_Lateral_Down20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_8_Mouth_Circle_Forward14.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_A_Mouth_Lateral_Self20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_V_Neutral_Circle_Down8.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_5_Mouth_Circle_Down15.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_C_Elbow_Twist_Self20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_B_Neutral_Lateral_Down11.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Flat_O_Mouth_Circle_Self15.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_V_Elbow_Lateral_Forward28.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_X_Neutral_Twist_Down3.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Ulnar_Neutral_Twist_Forward1.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_G_Elbow_Lateral_Self28.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_8_Elbow_Twist_Forward20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_R_Neutral_Twist_Forward1.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_3_Mouth_Twist_Down12.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_D_Mouth_Twist_Down12.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Elbow_Circle_Down24.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_C_Elbow_Circle_Self23.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Y_Mouth_Lateral_Self19.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Y_Mouth_Circle_Down17.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_8_Neutral_Twist_Down4.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_4_Elbow_Twist_Down21.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_C_Mouth_Lateral_Self17.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Mouth_Lateral_Down18.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Neutral_Lateral_Down9.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Bent_L_Mouth_Lateral_Forward1.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Y_Elbow_Lateral_Forward27.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_Bent_5_Mouth_Lateral_Forward 18.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_W_Neutral_Circle_Down7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Elbow_Circle_Self23.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Mouth_Circle_Down15.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_W_Elbow_Twist_Forward20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_A_Neutral_Circle_Down3.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_E_Mouth_Lateral_Self17.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Y_Elbow_Circle_Forward24.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_X_Mouth_Circle_Down15.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_4_Mouth_Lateral_Self17.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_4_Neutral_Circle_Self5.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Ulnar_Elbow_Circle_Forward22.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Neutral_Twist_Forward1.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Elbow_Circle_Down25.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_W_Neutral_Circle_Forward5.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Flat_O_Mouth_Twist_Forward11.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_E_Elbow_Twist_Self20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_F_Mouth_Circle_Forward14.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_K_Neutral_Twist_Self2.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_U_Neutral_Circle_Self5.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_G_Mouth_Circle_Self14.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_V_Elbow_Circle_Self26.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_R_Mouth_Circle_Down18.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Radial_U_Mouth_Lateral_Down18.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_D_Mouth_Twist_Forward10.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_U_Neutral_Lateral_Down9.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_W_Neutral_Lateral_Self9.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_S_Elbow_Twist_Down22.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_V_Elbow_Circle_Down27.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_Bent_5_Neutral_Lateral_Down11.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_U_Elbow_Lateral_Forward28.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_U_Mouth_Lateral_Forward17.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_R_Elbow_Twist_Self 24.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_U_Mouth_Circle_Forward13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Elbow_Circle_Forward22.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_O_Mouth_Circle_Self16.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_E_Neutral_Twist_Self2.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_10_Neutral_Lateral_Forward10.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Ulnar_Neutral_Lateral_Self8.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Flat_O_Elbow_Lateral_Forward26.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Radial_U_Elbow_Lateral_Self26.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_A_Mouth_Twist_Forward13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_3_Neutral_Twist_Down3.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_10_Elbow_Lateral_Forward28.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_B_Elbow_Twist_Down23.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_8_Neutral_Circle_Forward5.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Ulnar_Elbow_Lateral_Self26.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_X_Neutral_Twist_Self2.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Mouth_Twist_Down12.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Flat_O_Mouth_Circle_Forward14.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_8_Elbow_Lateral_Self27.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Y_Mouth_Twist_Forward12.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_3_Neutral_Twist_Self2.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Mouth_Twist_Self11.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_V_Neutral_Lateral_Forward8.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_F_Neutral_Circle_Self5.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Ulnar_Neutral_Twist_Self2.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_S_Mouth_Circle_Down15.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_5_Elbow_Twist_Down28.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_K_Elbow_Twist_Forward21.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_I_Elbow_Twist_Down24.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_4_Mouth_Twist_Down12.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_E_Elbow_Lateral_Forward25.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_10_Neutral_Circle_Down7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_V_Elbow_Twist_Self23.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_W_Elbow_Circle_Down25.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_V_Neutral_Lateral_Down10.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_5_Mouth_Circle_Forward13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_I_Neutral_Lateral_Forward8.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_E_Neutral_Lateral_Forward7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_F_Mouth_Circle_Self15.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Neutral_Twist_Down3.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_S_Neutral_Lateral_Forward7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Radial_8_Elbow_Circle_Down27.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_4_Elbow_Circle_Self23.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_X_Mouth_Twist_Down12.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_5_Elbow_Circle_Self23.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Mouth_Circle_Forward13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Radial_8_Mouth_Circle_Forward13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_W_Mouth_Lateral_Forward17.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_O_Mouth_Circle_Down17.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_U_Mouth_Twist_Forward10.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_O_Elbow_Circle_Down26.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Ulnar_Mouth_Lateral_Forward16.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_Bent_5_Elbow_Circle_Down26.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_5_Mouth_Twist_Forward10.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_F_Neutral_Lateral_Down10.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Radial_U_Neutral_Circle_Self5.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_C_Mouth_Twist_Self11.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Mouth_Circle_Down15.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Elbow_Lateral_Self27.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Bent_L_Neutral_Circle_Down7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Mouth_Circle_Forward13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_3_Neutral_Lateral_Down9.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_K_Elbow_Circle_Down26.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_S_Neutral_Twist_Self2.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_G_Mouth_Lateral_Self17.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_Bent_5_Elbow_Circle_Forward24.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_B_Neutral_Circle_Down7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_Bent_5_Neutral_Twist_Self3.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_5_Neutral_Twist_Down3.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_4_Mouth_Lateral_Down18.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_K_Neutral_Circle_Self6.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_S_Elbow_Twist_Self21.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_A_Elbow_Lateral_Forward28.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_E_Neutral_Circle_Forward4.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_C_Neutral_Lateral_Forward7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Ulnar_Elbow_Lateral_Down27.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_R_Neutral_Twist_Self3.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_5_Elbow_Twist_Forward19.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Mouth_Twist_Forward10.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Radial_U_Mouth_Twsit_Down12.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_3_Elbow_Lateral_Forward26.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_5_Elbow_Twist_Self20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Y_Mouth_Circle_Self16.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_5_Mouth_Twist_Self11.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_1_Mouth_Circle_Forward13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Neutral_Lateral_Forward7.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_R_Neutral_Circle_Down8.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Touch_X_Neutral_Circle_Forward4.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_S_Elbow_Twist_Forward19.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_I_Mouth_Lateral_Self20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_3_Elbow_Lateral_Down28.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_F_Elbow_Twist_Forward20.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_R_Elbow_Twist_Forward22.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Adducted_Bent_5_Elbow_Lateral_Self28.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Curved_V_Neutral_Circle_Forward4.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Bent_L_Mouth_Twist_Down13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_Bent_L_Neutral_Circle_Forward4.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_L_Ulnar_Mouth_Circle_Forward13.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_W_Elbow_Twist_Self21.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_X_Elbow_Lateral_Self26.mp4</t>
-  </si>
-  <si>
-    <t>/Users/chasehubbs/Desktop/Research/resources/90_8_Mouth_Twist_Forward11.mp4</t>
+    <t>90_D_Neutral_Lateral_Down9.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Mouth_Circle_Self14.mp4</t>
+  </si>
+  <si>
+    <t>90_E_Mouth_Twist_Down12.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_5_Elbow_Twist_Self20.mp4</t>
+  </si>
+  <si>
+    <t>90_S_Elbow_Circle_Down25.mp4</t>
+  </si>
+  <si>
+    <t>90_C_Neutral_Circle_Self5.mp4</t>
+  </si>
+  <si>
+    <t>90_4_Neutral_Circle_Forward4.mp4</t>
+  </si>
+  <si>
+    <t>90_F_Neutral_Twist_Down3.mp4</t>
+  </si>
+  <si>
+    <t>90_C_Neutral_Lateral_Self8.mp4</t>
+  </si>
+  <si>
+    <t>90_G_Elbow_Twist_Self21.mp4</t>
+  </si>
+  <si>
+    <t>90_Radial_U_Elbow_Circle_Forwawrd22.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_3_Neutral_Lateral_Down9.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_3_Neutral_Lateral_Self8.mp4</t>
+  </si>
+  <si>
+    <t>90_K_Elbow_Twist_Self22.mp4</t>
+  </si>
+  <si>
+    <t>90_3_Mouth_Circle_Forward13.mp4</t>
+  </si>
+  <si>
+    <t>90_R_Neutral_Lateral_Self10.mp4</t>
+  </si>
+  <si>
+    <t>90_R_Mouth_Twist_Self13.mp4</t>
+  </si>
+  <si>
+    <t>90_A_Elbow_Lateral_Self29.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_5_Neutral_Lateral_Down9.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_Bent_5_Mouth_Circle_Self16.mp4</t>
+  </si>
+  <si>
+    <t>90_R_Neutral_Circle_Forward6.mp4</t>
+  </si>
+  <si>
+    <t>90_F_Mouth_Twist_Down13.mp4</t>
+  </si>
+  <si>
+    <t>90_Radial_8_Neutral_Lateral_Forward7.mp4</t>
+  </si>
+  <si>
+    <t>90_C_Elbow_Twist_Forward19.mp4</t>
+  </si>
+  <si>
+    <t>90_3_Neutral_Twist_Forward1.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Ulnar_Elbow_Twist_Forward19.mp4</t>
+  </si>
+  <si>
+    <t>90_Flat_O_Mouth_Lateral_Down19.mp4</t>
+  </si>
+  <si>
+    <t>90_I_Mouth_Circle_Self16.mp4</t>
+  </si>
+  <si>
+    <t>90_Bent_L_Elbow_Circle_Self24.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_5_Elbow_Lateral_Self26.mp4</t>
+  </si>
+  <si>
+    <t>90_8_Neutral_Twist_Forward1.mp4</t>
+  </si>
+  <si>
+    <t>90_A_Neutral_Lateral_Down2.mp4</t>
+  </si>
+  <si>
+    <t>90_D_Neutral_Lateral_Forward7.mp4</t>
+  </si>
+  <si>
+    <t>90_Flat_O_Neutral_Twist_Down4.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_5_Mouth_Lateral_Self17.mp4</t>
+  </si>
+  <si>
+    <t>90_U_Neutral_Twist_Self2.mp4</t>
+  </si>
+  <si>
+    <t>90_U_Mouth_Lateral_Down20.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_3_Elbow_Twist_Self21.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Neutral_Circle_Down6.mp4</t>
+  </si>
+  <si>
+    <t>90_D_Elbow_Twist_Self20.mp4</t>
+  </si>
+  <si>
+    <t>90_E_Elbow_Twist_Forward19.mp4</t>
+  </si>
+  <si>
+    <t>90_U_Elbow_Lateral_Down30.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Mouth_Twist_Forward10.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Mouth_Lateral_Self17.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_3_Mouth_Lateral_Self18.mp4</t>
+  </si>
+  <si>
+    <t>90_V_Mouth_Circle_Down18.mp4</t>
+  </si>
+  <si>
+    <t>90_Flat_O_Neutral_Circle_Down7.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_Bent_5_Elbow_Twist_Forward21.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Ulnar_Elbow_Circle_Self23.mp4</t>
+  </si>
+  <si>
+    <t>90_G_Neutral_Twist_Forward1.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Ulnar_Neutral_Lateral_Down9.mp4</t>
+  </si>
+  <si>
+    <t>90_I_Mouth_Lateral_Forward19.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_Bent_5_Elbow_Circle_Self25.mp4</t>
+  </si>
+  <si>
+    <t>90_Radial_8_Elbow_Lateral_Self23.mp4</t>
+  </si>
+  <si>
+    <t>90_O_Mouth_Lateral_Forward18.mp4</t>
+  </si>
+  <si>
+    <t>90_V_Neutral_Lateral_Forward9.mp4</t>
+  </si>
+  <si>
+    <t>90_Flat_O_Elbow_Circle_Down25.mp4</t>
+  </si>
+  <si>
+    <t>90_5_Mouth_Lateral_Forward16.mp4</t>
+  </si>
+  <si>
+    <t>90_R_Neutral_Circle_Self7.mp4</t>
+  </si>
+  <si>
+    <t>90_5_Elbow_Lateral_Down27.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Ulnar_Neutral_Circle_Self5.mp4</t>
+  </si>
+  <si>
+    <t>90_B_Mouth_Twist_Down14.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Mouth_Twist_Down12.mp4</t>
+  </si>
+  <si>
+    <t>90_8_Mouth_Lateral_Down19.mp4</t>
+  </si>
+  <si>
+    <t>90_U_Mouth_Circle_Down15.mp4</t>
+  </si>
+  <si>
+    <t>90_8_Elbow_Circle_Forward23.mp4</t>
+  </si>
+  <si>
+    <t>90_Radial_U_Neutral_Lateral_Down9.mp4</t>
+  </si>
+  <si>
+    <t>90_10_Mouth_Twist_Self13.mp4</t>
+  </si>
+  <si>
+    <t>90_C_Neutral_Circle_Forward4.mp4</t>
+  </si>
+  <si>
+    <t>90_E_Mouth_Circle_Self14.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Elbow_Lateral_Forward26.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Mouth_Twist_Self11.mp4</t>
+  </si>
+  <si>
+    <t>90_E_Neutral_Lateral_Self8.mp4</t>
+  </si>
+  <si>
+    <t>90_W_Mouth_Twist_Self12.mp4</t>
+  </si>
+  <si>
+    <t>90_Y_Neutral_Twist_Down4.mp4</t>
+  </si>
+  <si>
+    <t>90_V_Elbow_Twist_Down24.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_5_Neutral_Lateral_Self8.mp4</t>
+  </si>
+  <si>
+    <t>90_G_Elbow_Circle_Self25.mp4</t>
+  </si>
+  <si>
+    <t>90_O_Elbow_Lateral_Self28.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_V_Neutral_Circle_Self5.mp4</t>
+  </si>
+  <si>
+    <t>90_Bent_L_Mouth_Lateral_Down3.mp4</t>
+  </si>
+  <si>
+    <t>90_Y_Mouth_Lateral_Down20.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_5_Elbow_Lateral_Forward25.mp4</t>
+  </si>
+  <si>
+    <t>90_O_Mouth_Lateral_Down20.mp4</t>
+  </si>
+  <si>
+    <t>90_8_Mouth_Circle_Forward14.mp4</t>
+  </si>
+  <si>
+    <t>90_A_Mouth_Lateral_Self20.mp4</t>
+  </si>
+  <si>
+    <t>90_V_Neutral_Circle_Down8.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_5_Mouth_Circle_Down15.mp4</t>
+  </si>
+  <si>
+    <t>90_C_Elbow_Twist_Self20.mp4</t>
+  </si>
+  <si>
+    <t>90_B_Neutral_Lateral_Down11.mp4</t>
+  </si>
+  <si>
+    <t>90_Flat_O_Mouth_Circle_Self15.mp4</t>
+  </si>
+  <si>
+    <t>90_V_Elbow_Lateral_Forward28.mp4</t>
+  </si>
+  <si>
+    <t>90_X_Neutral_Twist_Down3.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Ulnar_Neutral_Twist_Forward1.mp4</t>
+  </si>
+  <si>
+    <t>90_G_Elbow_Lateral_Self28.mp4</t>
+  </si>
+  <si>
+    <t>90_8_Elbow_Twist_Forward20.mp4</t>
+  </si>
+  <si>
+    <t>90_R_Neutral_Twist_Forward1.mp4</t>
+  </si>
+  <si>
+    <t>90_3_Mouth_Twist_Down12.mp4</t>
+  </si>
+  <si>
+    <t>90_D_Mouth_Twist_Down12.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Elbow_Circle_Down24.mp4</t>
+  </si>
+  <si>
+    <t>90_C_Elbow_Circle_Self23.mp4</t>
+  </si>
+  <si>
+    <t>90_Y_Mouth_Lateral_Self19.mp4</t>
+  </si>
+  <si>
+    <t>90_Y_Mouth_Circle_Down17.mp4</t>
+  </si>
+  <si>
+    <t>90_8_Neutral_Twist_Down4.mp4</t>
+  </si>
+  <si>
+    <t>90_4_Elbow_Twist_Down21.mp4</t>
+  </si>
+  <si>
+    <t>90_C_Mouth_Lateral_Self17.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Mouth_Lateral_Down18.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Neutral_Lateral_Down9.mp4</t>
+  </si>
+  <si>
+    <t>90_Bent_L_Mouth_Lateral_Forward1.mp4</t>
+  </si>
+  <si>
+    <t>90_Y_Elbow_Lateral_Forward27.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_Bent_5_Mouth_Lateral_Forward 18.mp4</t>
+  </si>
+  <si>
+    <t>90_W_Neutral_Circle_Down7.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Elbow_Circle_Self23.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Mouth_Circle_Down15.mp4</t>
+  </si>
+  <si>
+    <t>90_W_Elbow_Twist_Forward20.mp4</t>
+  </si>
+  <si>
+    <t>90_A_Neutral_Circle_Down3.mp4</t>
+  </si>
+  <si>
+    <t>90_E_Mouth_Lateral_Self17.mp4</t>
+  </si>
+  <si>
+    <t>90_Y_Elbow_Circle_Forward24.mp4</t>
+  </si>
+  <si>
+    <t>90_X_Mouth_Circle_Down15.mp4</t>
+  </si>
+  <si>
+    <t>90_4_Mouth_Lateral_Self17.mp4</t>
+  </si>
+  <si>
+    <t>90_4_Neutral_Circle_Self5.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Ulnar_Elbow_Circle_Forward22.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Neutral_Twist_Forward1.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Elbow_Circle_Down25.mp4</t>
+  </si>
+  <si>
+    <t>90_W_Neutral_Circle_Forward5.mp4</t>
+  </si>
+  <si>
+    <t>90_Flat_O_Mouth_Twist_Forward11.mp4</t>
+  </si>
+  <si>
+    <t>90_E_Elbow_Twist_Self20.mp4</t>
+  </si>
+  <si>
+    <t>90_F_Mouth_Circle_Forward14.mp4</t>
+  </si>
+  <si>
+    <t>90_K_Neutral_Twist_Self2.mp4</t>
+  </si>
+  <si>
+    <t>90_U_Neutral_Circle_Self5.mp4</t>
+  </si>
+  <si>
+    <t>90_G_Mouth_Circle_Self14.mp4</t>
+  </si>
+  <si>
+    <t>90_V_Elbow_Circle_Self26.mp4</t>
+  </si>
+  <si>
+    <t>90_R_Mouth_Circle_Down18.mp4</t>
+  </si>
+  <si>
+    <t>90_Radial_U_Mouth_Lateral_Down18.mp4</t>
+  </si>
+  <si>
+    <t>90_D_Mouth_Twist_Forward10.mp4</t>
+  </si>
+  <si>
+    <t>90_U_Neutral_Lateral_Down9.mp4</t>
+  </si>
+  <si>
+    <t>90_W_Neutral_Lateral_Self9.mp4</t>
+  </si>
+  <si>
+    <t>90_S_Elbow_Twist_Down22.mp4</t>
+  </si>
+  <si>
+    <t>90_V_Elbow_Circle_Down27.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_Bent_5_Neutral_Lateral_Down11.mp4</t>
+  </si>
+  <si>
+    <t>90_U_Elbow_Lateral_Forward28.mp4</t>
+  </si>
+  <si>
+    <t>90_U_Mouth_Lateral_Forward17.mp4</t>
+  </si>
+  <si>
+    <t>90_R_Elbow_Twist_Self 24.mp4</t>
+  </si>
+  <si>
+    <t>90_U_Mouth_Circle_Forward13.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Elbow_Circle_Forward22.mp4</t>
+  </si>
+  <si>
+    <t>90_O_Mouth_Circle_Self16.mp4</t>
+  </si>
+  <si>
+    <t>90_E_Neutral_Twist_Self2.mp4</t>
+  </si>
+  <si>
+    <t>90_10_Neutral_Lateral_Forward10.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Ulnar_Neutral_Lateral_Self8.mp4</t>
+  </si>
+  <si>
+    <t>90_Flat_O_Elbow_Lateral_Forward26.mp4</t>
+  </si>
+  <si>
+    <t>90_Radial_U_Elbow_Lateral_Self26.mp4</t>
+  </si>
+  <si>
+    <t>90_A_Mouth_Twist_Forward13.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_3_Neutral_Twist_Down3.mp4</t>
+  </si>
+  <si>
+    <t>90_10_Elbow_Lateral_Forward28.mp4</t>
+  </si>
+  <si>
+    <t>90_B_Elbow_Twist_Down23.mp4</t>
+  </si>
+  <si>
+    <t>90_8_Neutral_Circle_Forward5.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Ulnar_Elbow_Lateral_Self26.mp4</t>
+  </si>
+  <si>
+    <t>90_X_Neutral_Twist_Self2.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Mouth_Twist_Down12.mp4</t>
+  </si>
+  <si>
+    <t>90_Flat_O_Mouth_Circle_Forward14.mp4</t>
+  </si>
+  <si>
+    <t>90_8_Elbow_Lateral_Self27.mp4</t>
+  </si>
+  <si>
+    <t>90_Y_Mouth_Twist_Forward12.mp4</t>
+  </si>
+  <si>
+    <t>90_3_Neutral_Twist_Self2.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Mouth_Twist_Self11.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_V_Neutral_Lateral_Forward8.mp4</t>
+  </si>
+  <si>
+    <t>90_F_Neutral_Circle_Self5.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Ulnar_Neutral_Twist_Self2.mp4</t>
+  </si>
+  <si>
+    <t>90_S_Mouth_Circle_Down15.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_5_Elbow_Twist_Down28.mp4</t>
+  </si>
+  <si>
+    <t>90_K_Elbow_Twist_Forward21.mp4</t>
+  </si>
+  <si>
+    <t>90_I_Elbow_Twist_Down24.mp4</t>
+  </si>
+  <si>
+    <t>90_4_Mouth_Twist_Down12.mp4</t>
+  </si>
+  <si>
+    <t>90_E_Elbow_Lateral_Forward25.mp4</t>
+  </si>
+  <si>
+    <t>90_10_Neutral_Circle_Down7.mp4</t>
+  </si>
+  <si>
+    <t>90_V_Elbow_Twist_Self23.mp4</t>
+  </si>
+  <si>
+    <t>90_W_Elbow_Circle_Down25.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_V_Neutral_Lateral_Down10.mp4</t>
+  </si>
+  <si>
+    <t>90_5_Mouth_Circle_Forward13.mp4</t>
+  </si>
+  <si>
+    <t>90_I_Neutral_Lateral_Forward8.mp4</t>
+  </si>
+  <si>
+    <t>90_E_Neutral_Lateral_Forward7.mp4</t>
+  </si>
+  <si>
+    <t>90_F_Mouth_Circle_Self15.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Neutral_Twist_Down3.mp4</t>
+  </si>
+  <si>
+    <t>90_S_Neutral_Lateral_Forward7.mp4</t>
+  </si>
+  <si>
+    <t>90_Radial_8_Elbow_Circle_Down27.mp4</t>
+  </si>
+  <si>
+    <t>90_4_Elbow_Circle_Self23.mp4</t>
+  </si>
+  <si>
+    <t>90_X_Mouth_Twist_Down12.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_5_Elbow_Circle_Self23.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Mouth_Circle_Forward13.mp4</t>
+  </si>
+  <si>
+    <t>90_Radial_8_Mouth_Circle_Forward13.mp4</t>
+  </si>
+  <si>
+    <t>90_W_Mouth_Lateral_Forward17.mp4</t>
+  </si>
+  <si>
+    <t>90_O_Mouth_Circle_Down17.mp4</t>
+  </si>
+  <si>
+    <t>90_U_Mouth_Twist_Forward10.mp4</t>
+  </si>
+  <si>
+    <t>90_O_Elbow_Circle_Down26.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Ulnar_Mouth_Lateral_Forward16.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_Bent_5_Elbow_Circle_Down26.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_5_Mouth_Twist_Forward10.mp4</t>
+  </si>
+  <si>
+    <t>90_F_Neutral_Lateral_Down10.mp4</t>
+  </si>
+  <si>
+    <t>90_Radial_U_Neutral_Circle_Self5.mp4</t>
+  </si>
+  <si>
+    <t>90_C_Mouth_Twist_Self11.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Mouth_Circle_Down15.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Elbow_Lateral_Self27.mp4</t>
+  </si>
+  <si>
+    <t>90_Bent_L_Neutral_Circle_Down7.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Mouth_Circle_Forward13.mp4</t>
+  </si>
+  <si>
+    <t>90_3_Neutral_Lateral_Down9.mp4</t>
+  </si>
+  <si>
+    <t>90_K_Elbow_Circle_Down26.mp4</t>
+  </si>
+  <si>
+    <t>90_S_Neutral_Twist_Self2.mp4</t>
+  </si>
+  <si>
+    <t>90_G_Mouth_Lateral_Self17.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_Bent_5_Elbow_Circle_Forward24.mp4</t>
+  </si>
+  <si>
+    <t>90_B_Neutral_Circle_Down7.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_Bent_5_Neutral_Twist_Self3.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_5_Neutral_Twist_Down3.mp4</t>
+  </si>
+  <si>
+    <t>90_4_Mouth_Lateral_Down18.mp4</t>
+  </si>
+  <si>
+    <t>90_K_Neutral_Circle_Self6.mp4</t>
+  </si>
+  <si>
+    <t>90_S_Elbow_Twist_Self21.mp4</t>
+  </si>
+  <si>
+    <t>90_A_Elbow_Lateral_Forward28.mp4</t>
+  </si>
+  <si>
+    <t>90_E_Neutral_Circle_Forward4.mp4</t>
+  </si>
+  <si>
+    <t>90_C_Neutral_Lateral_Forward7.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Ulnar_Elbow_Lateral_Down27.mp4</t>
+  </si>
+  <si>
+    <t>90_R_Neutral_Twist_Self3.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_5_Elbow_Twist_Forward19.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Mouth_Twist_Forward10.mp4</t>
+  </si>
+  <si>
+    <t>90_Radial_U_Mouth_Twsit_Down12.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_3_Elbow_Lateral_Forward26.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_5_Elbow_Twist_Self20.mp4</t>
+  </si>
+  <si>
+    <t>90_Y_Mouth_Circle_Self16.mp4</t>
+  </si>
+  <si>
+    <t>90_5_Mouth_Twist_Self11.mp4</t>
+  </si>
+  <si>
+    <t>90_1_Mouth_Circle_Forward13.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Neutral_Lateral_Forward7.mp4</t>
+  </si>
+  <si>
+    <t>90_R_Neutral_Circle_Down8.mp4</t>
+  </si>
+  <si>
+    <t>90_Touch_X_Neutral_Circle_Forward4.mp4</t>
+  </si>
+  <si>
+    <t>90_S_Elbow_Twist_Forward19.mp4</t>
+  </si>
+  <si>
+    <t>90_I_Mouth_Lateral_Self20.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_3_Elbow_Lateral_Down28.mp4</t>
+  </si>
+  <si>
+    <t>90_F_Elbow_Twist_Forward20.mp4</t>
+  </si>
+  <si>
+    <t>90_R_Elbow_Twist_Forward22.mp4</t>
+  </si>
+  <si>
+    <t>90_Adducted_Bent_5_Elbow_Lateral_Self28.mp4</t>
+  </si>
+  <si>
+    <t>90_Curved_V_Neutral_Circle_Forward4.mp4</t>
+  </si>
+  <si>
+    <t>90_Bent_L_Mouth_Twist_Down13.mp4</t>
+  </si>
+  <si>
+    <t>90_Bent_L_Neutral_Circle_Forward4.mp4</t>
+  </si>
+  <si>
+    <t>90_L_Ulnar_Mouth_Circle_Forward13.mp4</t>
+  </si>
+  <si>
+    <t>90_W_Elbow_Twist_Self21.mp4</t>
+  </si>
+  <si>
+    <t>90_X_Elbow_Lateral_Self26.mp4</t>
+  </si>
+  <si>
+    <t>90_8_Mouth_Twist_Forward11.mp4</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373F7E3D-940B-4D48-894F-2DF1212BE235}">
   <dimension ref="A1:A244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A244"/>
     </sheetView>
   </sheetViews>
